--- a/python/TEST/lemon_rewrite_unittest_05/test.xlsx
+++ b/python/TEST/lemon_rewrite_unittest_05/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11180" windowWidth="28000"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="24225"/>
   </bookViews>
   <sheets>
     <sheet name="multiply" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
   <fonts count="20">
     <font>
       <name val="宋体"/>
@@ -34,7 +39,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -49,22 +55,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,23 +78,47 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,41 +131,23 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,6 +155,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -161,13 +173,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,19 +183,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,96 +357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,66 +364,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,6 +374,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -381,11 +401,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,50 +433,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,153 +465,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="23" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="15" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="16" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="18" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="11" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -627,54 +632,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
-    <cellStyle builtinId="20" name="输入" xfId="4"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="4" name="货币" xfId="7"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
-    <cellStyle builtinId="5" name="百分比" xfId="9"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
-    <cellStyle builtinId="22" name="计算" xfId="15"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
-    <cellStyle builtinId="28" name="适中" xfId="17"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
-    <cellStyle builtinId="26" name="好" xfId="19"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
-    <cellStyle builtinId="25" name="汇总" xfId="21"/>
-    <cellStyle builtinId="27" name="差" xfId="22"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
     <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
-    <cellStyle builtinId="15" name="标题" xfId="33"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
-    <cellStyle builtinId="10" name="注释" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
-    <cellStyle builtinId="8" name="超链接" xfId="41"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
     <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
     <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -944,13 +949,13 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.141666666666669" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="19.6428571428571"/>
-    <col customWidth="1" max="5" min="5" style="1" width="14.7232142857143"/>
+    <col customWidth="1" max="2" min="2" style="1" width="19.6416666666667"/>
+    <col customWidth="1" max="5" min="5" style="1" width="14.725"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1008,6 +1013,14 @@
       <c r="E2" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -1027,14 +1040,6 @@
       <c r="E3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -1054,6 +1059,14 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -1072,6 +1085,14 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>15</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
